--- a/docs/ARCHIVOS_CARGA.xlsx
+++ b/docs/ARCHIVOS_CARGA.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="USUARIOS" sheetId="1" r:id="rId1"/>
     <sheet name="ADMINISTRADORES" sheetId="2" r:id="rId2"/>
+    <sheet name="AGENTES" sheetId="3" r:id="rId3"/>
+    <sheet name="AGENTES_MARITIMOS" sheetId="4" r:id="rId4"/>
+    <sheet name="AREAS" sheetId="5" r:id="rId5"/>
+    <sheet name="FACTURAS" sheetId="6" r:id="rId6"/>
+    <sheet name="BUQUES" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="2170">
   <si>
     <t>ID</t>
   </si>
@@ -4568,6 +4573,1968 @@
   </si>
   <si>
     <t>login504</t>
+  </si>
+  <si>
+    <t>Reyes del oceano1</t>
+  </si>
+  <si>
+    <t>Reyes del oceano2</t>
+  </si>
+  <si>
+    <t>Reyes del oceano3</t>
+  </si>
+  <si>
+    <t>Reyes del oceano4</t>
+  </si>
+  <si>
+    <t>Reyes del oceano5</t>
+  </si>
+  <si>
+    <t>Reyes del oceano6</t>
+  </si>
+  <si>
+    <t>Reyes del oceano7</t>
+  </si>
+  <si>
+    <t>Reyes del oceano8</t>
+  </si>
+  <si>
+    <t>Reyes del oceano9</t>
+  </si>
+  <si>
+    <t>Reyes del oceano10</t>
+  </si>
+  <si>
+    <t>Reyes del oceano11</t>
+  </si>
+  <si>
+    <t>Reyes del oceano12</t>
+  </si>
+  <si>
+    <t>Reyes del oceano13</t>
+  </si>
+  <si>
+    <t>Reyes del oceano14</t>
+  </si>
+  <si>
+    <t>Reyes del oceano15</t>
+  </si>
+  <si>
+    <t>Reyes del oceano16</t>
+  </si>
+  <si>
+    <t>Reyes del oceano17</t>
+  </si>
+  <si>
+    <t>Reyes del oceano18</t>
+  </si>
+  <si>
+    <t>Reyes del oceano19</t>
+  </si>
+  <si>
+    <t>Reyes del oceano20</t>
+  </si>
+  <si>
+    <t>Reyes del oceano21</t>
+  </si>
+  <si>
+    <t>Reyes del oceano22</t>
+  </si>
+  <si>
+    <t>Reyes del oceano23</t>
+  </si>
+  <si>
+    <t>Reyes del oceano24</t>
+  </si>
+  <si>
+    <t>Reyes del oceano25</t>
+  </si>
+  <si>
+    <t>Reyes del oceano26</t>
+  </si>
+  <si>
+    <t>Reyes del oceano27</t>
+  </si>
+  <si>
+    <t>Reyes del oceano28</t>
+  </si>
+  <si>
+    <t>Reyes del oceano29</t>
+  </si>
+  <si>
+    <t>Reyes del oceano30</t>
+  </si>
+  <si>
+    <t>Reyes del oceano31</t>
+  </si>
+  <si>
+    <t>Reyes del oceano32</t>
+  </si>
+  <si>
+    <t>Reyes del oceano33</t>
+  </si>
+  <si>
+    <t>Reyes del oceano34</t>
+  </si>
+  <si>
+    <t>Reyes del oceano35</t>
+  </si>
+  <si>
+    <t>Reyes del oceano36</t>
+  </si>
+  <si>
+    <t>Reyes del oceano37</t>
+  </si>
+  <si>
+    <t>Reyes del oceano38</t>
+  </si>
+  <si>
+    <t>Reyes del oceano39</t>
+  </si>
+  <si>
+    <t>Reyes del oceano40</t>
+  </si>
+  <si>
+    <t>Reyes del oceano41</t>
+  </si>
+  <si>
+    <t>Reyes del oceano42</t>
+  </si>
+  <si>
+    <t>Reyes del oceano43</t>
+  </si>
+  <si>
+    <t>Reyes del oceano44</t>
+  </si>
+  <si>
+    <t>Reyes del oceano45</t>
+  </si>
+  <si>
+    <t>Reyes del oceano46</t>
+  </si>
+  <si>
+    <t>Reyes del oceano47</t>
+  </si>
+  <si>
+    <t>Reyes del oceano48</t>
+  </si>
+  <si>
+    <t>Reyes del oceano49</t>
+  </si>
+  <si>
+    <t>Reyes del oceano50</t>
+  </si>
+  <si>
+    <t>ID_AGENTE</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 1</t>
+  </si>
+  <si>
+    <t>REGISTRO</t>
+  </si>
+  <si>
+    <t>CAPACIDAD</t>
+  </si>
+  <si>
+    <t>UTILIZADO</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 100</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 101</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 102</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 103</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 104</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 105</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 106</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 107</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 108</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 109</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 110</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 111</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 112</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 113</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 114</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 115</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 116</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 117</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 118</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 119</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 120</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 121</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 122</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 123</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 124</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 125</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 126</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 127</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 128</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 129</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 130</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 131</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 132</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 133</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 134</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 135</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 136</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 137</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 138</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 139</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 140</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 141</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 142</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 143</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 144</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 145</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 146</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 147</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 148</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 149</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 150</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 151</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 152</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 153</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 154</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 155</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 156</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 157</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 158</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 159</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 160</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 161</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 162</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 163</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 164</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 165</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 166</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 167</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 168</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 169</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 170</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 171</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 172</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 173</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 174</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 175</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 176</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 177</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 178</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 179</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 180</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 181</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 182</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 183</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 184</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 185</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 186</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 187</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 188</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 189</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 190</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 191</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 192</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 193</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 194</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 195</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 196</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 197</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 198</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 199</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 200</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 201</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 202</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 203</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 204</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 205</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 206</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 207</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 208</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 209</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 210</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 211</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 212</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 213</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 214</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 215</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 216</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 217</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 218</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 219</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 220</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 221</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 222</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 223</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 224</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 225</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 226</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 227</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 228</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 229</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 230</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 231</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 232</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 233</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 234</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 235</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 236</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 237</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 238</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 239</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 240</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 241</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 242</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 243</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 244</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 245</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 246</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 247</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 248</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 249</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 250</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 251</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 252</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 253</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 254</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 255</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 256</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 257</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 258</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 259</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 260</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 261</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 262</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 263</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 264</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 265</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 266</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 267</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 268</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 269</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 270</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 271</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 272</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 273</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 274</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 275</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 276</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 277</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 278</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 279</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 280</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 281</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 282</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 283</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 284</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 285</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 286</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 287</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 288</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 289</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 290</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 291</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 292</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 293</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 294</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 295</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 296</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 297</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 298</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 299</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 300</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 301</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 302</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 303</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 304</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 305</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 306</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 307</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 308</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 309</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 310</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 311</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 312</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 313</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 314</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 315</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 316</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 317</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 318</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 319</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 320</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 321</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 322</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 323</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 324</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 325</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 326</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 327</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 328</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 329</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 330</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 331</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 332</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 333</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 334</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 335</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 336</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 337</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 338</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 339</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 340</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 341</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 342</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 343</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 344</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 345</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 346</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 347</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 348</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 349</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 350</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 351</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 352</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 353</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 354</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 355</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 356</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 357</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 358</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 359</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 360</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 361</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 362</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 363</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 364</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 365</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 366</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 367</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 368</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 369</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 370</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 371</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 372</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 373</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 374</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 375</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 376</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 377</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 378</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 379</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 380</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 381</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 382</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 383</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 384</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 385</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 386</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 387</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 388</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 389</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 390</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 391</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 392</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 393</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 394</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 395</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 396</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 397</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 398</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAPITANIA 399</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 2</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 3</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 4</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 5</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 6</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 7</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 8</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 9</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 10</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 11</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 12</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 13</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 14</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 15</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 16</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 17</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 18</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 19</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 20</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 21</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 22</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 23</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 24</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 25</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 26</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 27</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 28</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 29</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 30</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 31</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 32</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 33</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 34</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 35</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 36</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 37</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 38</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 39</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 40</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 41</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 42</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 43</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 44</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 45</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 46</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 47</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 48</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 49</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 50</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 51</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 52</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 53</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 54</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 55</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 56</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 57</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 58</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 59</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 60</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 61</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 62</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 63</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 64</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 65</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 66</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 67</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 68</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 69</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 70</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 71</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 72</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 73</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 74</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 75</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 76</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 77</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 78</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 79</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 80</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 81</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 82</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 83</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 84</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 85</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 86</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 87</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 88</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 89</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 90</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 91</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 92</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 93</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 94</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 95</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 96</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 97</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 98</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 99</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 100</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 101</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 102</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 103</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 104</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 105</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 106</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 107</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 108</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 109</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 110</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 111</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 112</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 113</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 114</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 115</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 116</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 117</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 118</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 119</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 120</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 121</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 122</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 123</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 124</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 125</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 126</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 127</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 128</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 129</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 130</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 131</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 132</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 133</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 134</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 135</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 136</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 137</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 138</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 139</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 140</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 141</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 142</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 143</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 144</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 145</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 146</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 147</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 148</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 149</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 150</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 151</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 152</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 153</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 154</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 155</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 156</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 157</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 158</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 159</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 160</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 161</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 162</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 163</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 164</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 165</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 166</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 167</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 168</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 169</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 170</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 171</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 172</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 173</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 174</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 175</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 176</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 177</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 178</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 179</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 180</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 181</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 182</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 183</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 184</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 185</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 186</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 187</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 188</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 189</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 190</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 191</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 192</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 193</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 194</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 195</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 196</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 197</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 198</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 199</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 200</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 201</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 202</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 203</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 204</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 205</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 206</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 207</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 208</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 209</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 210</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 211</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 212</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 213</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 214</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 215</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 216</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 217</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 218</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 219</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 220</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 221</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 222</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 223</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 224</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 225</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 226</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 227</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 228</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 229</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 230</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 231</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 232</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 233</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 234</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 235</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 236</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 237</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 238</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 239</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 240</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 241</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 242</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 243</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 244</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 245</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 246</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 247</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 248</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 249</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 250</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 251</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 252</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 253</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 254</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 255</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 256</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 257</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 258</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 259</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 260</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 261</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 262</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 263</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 264</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 265</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 266</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 267</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 268</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 269</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 270</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 271</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 272</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 273</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 274</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 275</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 276</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 277</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 278</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 279</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 280</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 281</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 282</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 283</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 284</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 285</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 286</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 287</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 288</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 289</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 290</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 291</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 292</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 293</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 294</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 295</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 296</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 297</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 298</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 299</t>
+  </si>
+  <si>
+    <t>Buque de los Magallanes 300</t>
   </si>
 </sst>
 </file>
@@ -4938,7 +6905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F502" sqref="F502"/>
     </sheetView>
   </sheetViews>
@@ -12117,4 +14084,7918 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F301"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H282" sqref="H282"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D2">
+        <f ca="1">INT(RAND() * 49 + 1)</f>
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RAND()*10000+10000</f>
+        <v>15977.753512056253</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" ca="1" si="0">INT(RAND() * 49 + 1)</f>
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" ca="1" si="1">RAND()*10000+10000</f>
+        <v>14167.952895319875</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>12114.385327636497</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>18084.804458960312</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>15229.228012767067</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>11816.850783523278</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>11280.757532764039</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>10353.686423031195</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>10646.403543775377</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>19688.391344728574</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>11266.778065519775</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>17598.416326334896</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="1"/>
+        <v>14125.637824340096</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="1"/>
+        <v>16034.177837764761</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>10059.91714638446</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>19010.541855335046</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>16199.25175978351</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>18415.402515907605</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>11597.695961324813</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>14736.855200950362</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>18730.359301187942</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>14640.185000657046</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>18596.27471124861</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>18169.024750342458</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>18212.65695487236</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
+        <v>17111.054539137764</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>11495.004080610172</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>18043.79982109859</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>10136.14702785438</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>11369.485218982361</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="1"/>
+        <v>15652.368755069712</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>15833.420313928938</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>18961.049084603386</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>13728.915944236005</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>10875.509743399378</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>15004.413319914176</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>10530.435052014334</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>18623.359985511805</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>10886.92233660403</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>13654.578675748244</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
+        <v>11208.872533763441</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="1"/>
+        <v>19968.866283554111</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="1"/>
+        <v>14886.657651080903</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="1"/>
+        <v>16613.340729624852</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="1"/>
+        <v>17635.425923178835</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="1"/>
+        <v>15633.094727027757</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="1"/>
+        <v>18665.768257353415</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>19329.410183234271</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="1"/>
+        <v>11977.691728913402</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="1"/>
+        <v>16301.058755505414</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="1"/>
+        <v>12400.183980799426</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="1"/>
+        <v>16097.976800771517</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="1"/>
+        <v>15122.165443717502</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="1"/>
+        <v>14107.961004199124</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="1"/>
+        <v>11607.779189919929</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="1"/>
+        <v>13396.548192412467</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="1"/>
+        <v>19167.776908575157</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="1"/>
+        <v>14833.325473676798</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="1"/>
+        <v>15323.735084501617</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="1"/>
+        <v>19079.830658895618</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="1"/>
+        <v>10873.869440100945</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="1"/>
+        <v>15342.070092767201</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="1"/>
+        <v>11375.458930224271</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="1"/>
+        <v>19897.428269940428</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="1"/>
+        <v>14558.205364962505</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" ca="1" si="2">INT(RAND() * 49 + 1)</f>
+        <v>19</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" ca="1" si="3">RAND()*10000+10000</f>
+        <v>17481.120995862118</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="3"/>
+        <v>11262.904140454084</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="3"/>
+        <v>11276.008890255771</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="3"/>
+        <v>14127.740016705058</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="3"/>
+        <v>13487.735882829984</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="3"/>
+        <v>19616.001892861765</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="3"/>
+        <v>11549.686092431475</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="3"/>
+        <v>16422.139212921695</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="3"/>
+        <v>14404.357986605501</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="3"/>
+        <v>13842.633201033947</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="3"/>
+        <v>15732.134328477172</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="3"/>
+        <v>14333.633655474046</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="3"/>
+        <v>14394.798429549821</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="3"/>
+        <v>18038.337472353145</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="3"/>
+        <v>18719.990776662235</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="3"/>
+        <v>17748.99334119487</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="3"/>
+        <v>14692.177898326147</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="3"/>
+        <v>10226.408239733724</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="3"/>
+        <v>16511.633810494266</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="3"/>
+        <v>18794.541735714523</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="3"/>
+        <v>11022.616123946076</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="3"/>
+        <v>15321.35279331456</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="3"/>
+        <v>14403.293957268193</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="3"/>
+        <v>11147.062821710613</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="3"/>
+        <v>10626.943933180182</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="3"/>
+        <v>16238.372777019256</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="3"/>
+        <v>14453.977219793893</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="3"/>
+        <v>19201.892441028613</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="3"/>
+        <v>15911.185676916612</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="3"/>
+        <v>14007.29092654009</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="3"/>
+        <v>11111.80937687348</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="3"/>
+        <v>18292.2592492775</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="3"/>
+        <v>13995.834277751441</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="3"/>
+        <v>19895.997104279788</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="3"/>
+        <v>13415.913756413996</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="3"/>
+        <v>10420.467831475215</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="3"/>
+        <v>18318.55171882343</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D104">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="3"/>
+        <v>11645.149897952801</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="3"/>
+        <v>12088.045699307959</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D106">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="3"/>
+        <v>10846.671388561092</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="3"/>
+        <v>15915.165703922165</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="3"/>
+        <v>18936.613417688728</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="3"/>
+        <v>13146.197443881651</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="3"/>
+        <v>11471.62412826025</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D111">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="3"/>
+        <v>16574.909951783506</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D112">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ca="1" si="3"/>
+        <v>13455.173624859592</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D113">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="3"/>
+        <v>17483.304360960094</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D114">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ca="1" si="3"/>
+        <v>15515.341043030003</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ca="1" si="3"/>
+        <v>13511.094738402826</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D116">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="3"/>
+        <v>17534.351540674732</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="3"/>
+        <v>12338.833985700872</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ca="1" si="3"/>
+        <v>16195.244356741523</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="3"/>
+        <v>14797.918064628329</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D120">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="3"/>
+        <v>10668.516383508617</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D121">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="3"/>
+        <v>16168.605176806328</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D122">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ca="1" si="3"/>
+        <v>15947.998479622423</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ca="1" si="3"/>
+        <v>15711.40463619301</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ca="1" si="3"/>
+        <v>18749.709706912276</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D125">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ca="1" si="3"/>
+        <v>11223.02933820726</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D126">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ca="1" si="3"/>
+        <v>19066.328278548535</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D127">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ca="1" si="3"/>
+        <v>15558.041756418272</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D128">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ca="1" si="3"/>
+        <v>14885.906331391972</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D129">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ca="1" si="3"/>
+        <v>10842.257918394658</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ca="1" si="3"/>
+        <v>18259.539915779875</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D194" ca="1" si="4">INT(RAND() * 49 + 1)</f>
+        <v>29</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" ca="1" si="5">RAND()*10000+10000</f>
+        <v>17289.78565425222</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ca="1" si="5"/>
+        <v>15077.964031113544</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D133">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ca="1" si="5"/>
+        <v>15000.106775071526</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D134">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ca="1" si="5"/>
+        <v>11766.268342330082</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D135">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ca="1" si="5"/>
+        <v>10902.920691349789</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ca="1" si="5"/>
+        <v>17126.938332293234</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ca="1" si="5"/>
+        <v>19376.582907875603</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D138">
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ca="1" si="5"/>
+        <v>11713.535838075875</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D139">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ca="1" si="5"/>
+        <v>15597.319876036181</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D140">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ca="1" si="5"/>
+        <v>19486.806895081885</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ca="1" si="5"/>
+        <v>10028.358775259676</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D142">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ca="1" si="5"/>
+        <v>17705.57536181431</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D143">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ca="1" si="5"/>
+        <v>16168.489073485081</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="E144">
+        <f t="shared" ca="1" si="5"/>
+        <v>11301.096134841562</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D145">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ca="1" si="5"/>
+        <v>17472.50984868022</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D146">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ca="1" si="5"/>
+        <v>18204.755149061413</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D147">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E147">
+        <f t="shared" ca="1" si="5"/>
+        <v>10046.941421339094</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D148">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <f t="shared" ca="1" si="5"/>
+        <v>18475.85527633188</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D149">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ca="1" si="5"/>
+        <v>16946.823832093749</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D150">
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="E150">
+        <f t="shared" ca="1" si="5"/>
+        <v>10278.613237845466</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D151">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ca="1" si="5"/>
+        <v>18698.70794268982</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D152">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="E152">
+        <f t="shared" ca="1" si="5"/>
+        <v>17905.643889216048</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D153">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ca="1" si="5"/>
+        <v>10510.717632420319</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D154">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <f t="shared" ca="1" si="5"/>
+        <v>18124.759369688814</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D155">
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="E155">
+        <f t="shared" ca="1" si="5"/>
+        <v>10157.053462815642</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D156">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E156">
+        <f t="shared" ca="1" si="5"/>
+        <v>14065.485158587253</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D157">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E157">
+        <f t="shared" ca="1" si="5"/>
+        <v>15848.134660472278</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D158">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E158">
+        <f t="shared" ca="1" si="5"/>
+        <v>18051.764173108146</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D159">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E159">
+        <f t="shared" ca="1" si="5"/>
+        <v>19888.794121686675</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D160">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E160">
+        <f t="shared" ca="1" si="5"/>
+        <v>15576.426027251266</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D161">
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ca="1" si="5"/>
+        <v>16179.754343838864</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D162">
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="E162">
+        <f t="shared" ca="1" si="5"/>
+        <v>13117.206501638</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D163">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E163">
+        <f t="shared" ca="1" si="5"/>
+        <v>16029.422775814477</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D164">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <f t="shared" ca="1" si="5"/>
+        <v>11212.293823367982</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D165">
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="E165">
+        <f t="shared" ca="1" si="5"/>
+        <v>13824.42189833167</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D166">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E166">
+        <f t="shared" ca="1" si="5"/>
+        <v>14360.915871154364</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D167">
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="E167">
+        <f t="shared" ca="1" si="5"/>
+        <v>13176.404113349112</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D168">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E168">
+        <f t="shared" ca="1" si="5"/>
+        <v>18310.251204790133</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D169">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="E169">
+        <f t="shared" ca="1" si="5"/>
+        <v>12912.042033843711</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D170">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <f t="shared" ca="1" si="5"/>
+        <v>10481.130642377866</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D171">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E171">
+        <f t="shared" ca="1" si="5"/>
+        <v>14298.586141964142</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D172">
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="E172">
+        <f t="shared" ca="1" si="5"/>
+        <v>19997.960769498499</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D173">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <f t="shared" ca="1" si="5"/>
+        <v>15038.371296083458</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D174">
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="E174">
+        <f t="shared" ca="1" si="5"/>
+        <v>19280.176844043381</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D175">
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="E175">
+        <f t="shared" ca="1" si="5"/>
+        <v>14148.146709984692</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D176">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E176">
+        <f t="shared" ca="1" si="5"/>
+        <v>11777.086760447815</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D177">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="E177">
+        <f t="shared" ca="1" si="5"/>
+        <v>19217.115163688621</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D178">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="E178">
+        <f t="shared" ca="1" si="5"/>
+        <v>15728.707478127149</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D179">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E179">
+        <f t="shared" ca="1" si="5"/>
+        <v>11016.695609544871</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D180">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="E180">
+        <f t="shared" ca="1" si="5"/>
+        <v>13937.180791529623</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D181">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E181">
+        <f t="shared" ca="1" si="5"/>
+        <v>16521.116493897578</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D182">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="E182">
+        <f t="shared" ca="1" si="5"/>
+        <v>15654.612503031156</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D183">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="E183">
+        <f t="shared" ca="1" si="5"/>
+        <v>15985.718964864649</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D184">
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="E184">
+        <f t="shared" ca="1" si="5"/>
+        <v>10500.208146405976</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D185">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="E185">
+        <f t="shared" ca="1" si="5"/>
+        <v>17127.803158784394</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D186">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E186">
+        <f t="shared" ca="1" si="5"/>
+        <v>18664.779366379385</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D187">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <f t="shared" ca="1" si="5"/>
+        <v>10499.429607634127</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D188">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="E188">
+        <f t="shared" ca="1" si="5"/>
+        <v>10362.787175808526</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D189">
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="E189">
+        <f t="shared" ca="1" si="5"/>
+        <v>11642.766331193903</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D190">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E190">
+        <f t="shared" ca="1" si="5"/>
+        <v>14136.540682195464</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D191">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="E191">
+        <f t="shared" ca="1" si="5"/>
+        <v>10687.627404776968</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D192">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E192">
+        <f t="shared" ca="1" si="5"/>
+        <v>11867.906915975309</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D193">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="E193">
+        <f t="shared" ca="1" si="5"/>
+        <v>19114.667068736315</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D194">
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ca="1" si="5"/>
+        <v>17599.725246063164</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D258" ca="1" si="6">INT(RAND() * 49 + 1)</f>
+        <v>40</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E258" ca="1" si="7">RAND()*10000+10000</f>
+        <v>10859.941381137927</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D196">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ca="1" si="7"/>
+        <v>19773.860866235118</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D197">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <f t="shared" ca="1" si="7"/>
+        <v>11066.92970413213</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D198">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E198">
+        <f t="shared" ca="1" si="7"/>
+        <v>14959.953015307476</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D199">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E199">
+        <f t="shared" ca="1" si="7"/>
+        <v>15332.086360537207</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D200">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <f t="shared" ca="1" si="7"/>
+        <v>18115.4537330108</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D201">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E201">
+        <f t="shared" ca="1" si="7"/>
+        <v>11501.845211127536</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D202">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="E202">
+        <f t="shared" ca="1" si="7"/>
+        <v>17151.240577312718</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D203">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E203">
+        <f t="shared" ca="1" si="7"/>
+        <v>13449.527112548507</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D204">
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="E204">
+        <f t="shared" ca="1" si="7"/>
+        <v>17689.319326956822</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D205">
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="E205">
+        <f t="shared" ca="1" si="7"/>
+        <v>18874.997251362816</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D206">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="E206">
+        <f t="shared" ca="1" si="7"/>
+        <v>17658.024212549844</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D207">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E207">
+        <f t="shared" ca="1" si="7"/>
+        <v>15523.830987164103</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D208">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E208">
+        <f t="shared" ca="1" si="7"/>
+        <v>15944.22200769612</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D209">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="E209">
+        <f t="shared" ca="1" si="7"/>
+        <v>14580.915647817321</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D210">
+        <f t="shared" ca="1" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="E210">
+        <f t="shared" ca="1" si="7"/>
+        <v>10314.097589802497</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D211">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E211">
+        <f t="shared" ca="1" si="7"/>
+        <v>12579.194803749364</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D212">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="E212">
+        <f t="shared" ca="1" si="7"/>
+        <v>15071.293415546357</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D213">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E213">
+        <f t="shared" ca="1" si="7"/>
+        <v>19486.502397454835</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D214">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="E214">
+        <f t="shared" ca="1" si="7"/>
+        <v>14818.271398625016</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D215">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="E215">
+        <f t="shared" ca="1" si="7"/>
+        <v>18779.100758055076</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D216">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="E216">
+        <f t="shared" ca="1" si="7"/>
+        <v>11847.470429795685</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D217">
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="E217">
+        <f t="shared" ca="1" si="7"/>
+        <v>19589.094401415445</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D218">
+        <f t="shared" ca="1" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="E218">
+        <f t="shared" ca="1" si="7"/>
+        <v>12630.916047226674</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D219">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E219">
+        <f t="shared" ca="1" si="7"/>
+        <v>15287.392760645278</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D220">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="E220">
+        <f t="shared" ca="1" si="7"/>
+        <v>12801.695036799905</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D221">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="E221">
+        <f t="shared" ca="1" si="7"/>
+        <v>19307.177369209654</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D222">
+        <f t="shared" ca="1" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="E222">
+        <f t="shared" ca="1" si="7"/>
+        <v>16814.89053687128</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D223">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E223">
+        <f t="shared" ca="1" si="7"/>
+        <v>16296.156294156255</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D224">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E224">
+        <f t="shared" ca="1" si="7"/>
+        <v>13301.75112207796</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D225">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="E225">
+        <f t="shared" ca="1" si="7"/>
+        <v>13032.048011895742</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D226">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E226">
+        <f t="shared" ca="1" si="7"/>
+        <v>15320.68445598465</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D227">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="E227">
+        <f t="shared" ca="1" si="7"/>
+        <v>16223.945695969964</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D228">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E228">
+        <f t="shared" ca="1" si="7"/>
+        <v>19507.138887782705</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D229">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="E229">
+        <f t="shared" ca="1" si="7"/>
+        <v>15027.903492423513</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D230">
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="E230">
+        <f t="shared" ca="1" si="7"/>
+        <v>12568.062782047778</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D231">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E231">
+        <f t="shared" ca="1" si="7"/>
+        <v>14021.785839083397</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D232">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E232">
+        <f t="shared" ca="1" si="7"/>
+        <v>13482.691269808687</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D233">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="E233">
+        <f t="shared" ca="1" si="7"/>
+        <v>10199.50819452348</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D234">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="E234">
+        <f t="shared" ca="1" si="7"/>
+        <v>15670.49986997172</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D235">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E235">
+        <f t="shared" ca="1" si="7"/>
+        <v>17459.490785486923</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D236">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E236">
+        <f t="shared" ca="1" si="7"/>
+        <v>12623.559636267441</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D237">
+        <f t="shared" ca="1" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="E237">
+        <f t="shared" ca="1" si="7"/>
+        <v>19919.754383525291</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D238">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E238">
+        <f t="shared" ca="1" si="7"/>
+        <v>19370.474901834452</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D239">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="E239">
+        <f t="shared" ca="1" si="7"/>
+        <v>17791.134914354174</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D240">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="E240">
+        <f t="shared" ca="1" si="7"/>
+        <v>19680.597682499192</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D241">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E241">
+        <f t="shared" ca="1" si="7"/>
+        <v>14075.559151436019</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D242">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="E242">
+        <f t="shared" ca="1" si="7"/>
+        <v>14176.392211617134</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D243">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="E243">
+        <f t="shared" ca="1" si="7"/>
+        <v>13695.732889389747</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D244">
+        <f t="shared" ca="1" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="E244">
+        <f t="shared" ca="1" si="7"/>
+        <v>15702.47592087424</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D245">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="E245">
+        <f t="shared" ca="1" si="7"/>
+        <v>12352.075081233128</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D246">
+        <f t="shared" ca="1" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="E246">
+        <f t="shared" ca="1" si="7"/>
+        <v>15674.238536745561</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D247">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E247">
+        <f t="shared" ca="1" si="7"/>
+        <v>10054.031159405789</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D248">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E248">
+        <f t="shared" ca="1" si="7"/>
+        <v>15339.893091589563</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D249">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="E249">
+        <f t="shared" ca="1" si="7"/>
+        <v>13859.541030484983</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D250">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="E250">
+        <f t="shared" ca="1" si="7"/>
+        <v>12259.803681034551</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D251">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="E251">
+        <f t="shared" ca="1" si="7"/>
+        <v>18915.508405271816</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D252">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E252">
+        <f t="shared" ca="1" si="7"/>
+        <v>14625.831518623458</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D253">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="E253">
+        <f t="shared" ca="1" si="7"/>
+        <v>18896.169653399789</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D254">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E254">
+        <f t="shared" ca="1" si="7"/>
+        <v>12893.450577136224</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D255">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="E255">
+        <f t="shared" ca="1" si="7"/>
+        <v>11662.776237018019</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D256">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="E256">
+        <f t="shared" ca="1" si="7"/>
+        <v>15331.027875768863</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D257">
+        <f t="shared" ca="1" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="E257">
+        <f t="shared" ca="1" si="7"/>
+        <v>19557.245682199205</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D258">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="E258">
+        <f t="shared" ca="1" si="7"/>
+        <v>15215.119470937116</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D259">
+        <f t="shared" ref="D259:D301" ca="1" si="8">INT(RAND() * 49 + 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <f t="shared" ref="E259:E301" ca="1" si="9">RAND()*10000+10000</f>
+        <v>10981.034044707014</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D260">
+        <f t="shared" ca="1" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="E260">
+        <f t="shared" ca="1" si="9"/>
+        <v>18972.739112005336</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D261">
+        <f t="shared" ca="1" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E261">
+        <f t="shared" ca="1" si="9"/>
+        <v>14525.650084526886</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D262">
+        <f t="shared" ca="1" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="E262">
+        <f t="shared" ca="1" si="9"/>
+        <v>18349.797794444232</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D263">
+        <f t="shared" ca="1" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="E263">
+        <f t="shared" ca="1" si="9"/>
+        <v>13578.616384793637</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D264">
+        <f t="shared" ca="1" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="E264">
+        <f t="shared" ca="1" si="9"/>
+        <v>18653.271668923713</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D265">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E265">
+        <f t="shared" ca="1" si="9"/>
+        <v>16463.951052549804</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D266">
+        <f t="shared" ca="1" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="E266">
+        <f t="shared" ca="1" si="9"/>
+        <v>11113.309463862724</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D267">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E267">
+        <f t="shared" ca="1" si="9"/>
+        <v>19697.070753924418</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D268">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E268">
+        <f t="shared" ca="1" si="9"/>
+        <v>15215.513872201556</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D269">
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E269">
+        <f t="shared" ca="1" si="9"/>
+        <v>18378.096383571938</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D270">
+        <f t="shared" ca="1" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="E270">
+        <f t="shared" ca="1" si="9"/>
+        <v>14161.748586552956</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D271">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <f t="shared" ca="1" si="9"/>
+        <v>11803.886578523567</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D272">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="E272">
+        <f t="shared" ca="1" si="9"/>
+        <v>17768.330147777331</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D273">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <f t="shared" ca="1" si="9"/>
+        <v>14283.687050187325</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D274">
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="E274">
+        <f t="shared" ca="1" si="9"/>
+        <v>19935.531476373741</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D275">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="E275">
+        <f t="shared" ca="1" si="9"/>
+        <v>16161.205626477127</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D276">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E276">
+        <f t="shared" ca="1" si="9"/>
+        <v>12710.962325032355</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D277">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E277">
+        <f t="shared" ca="1" si="9"/>
+        <v>19099.222459901859</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D278">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E278">
+        <f t="shared" ca="1" si="9"/>
+        <v>18200.763078893804</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D279">
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="E279">
+        <f t="shared" ca="1" si="9"/>
+        <v>13502.653916617448</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D280">
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="E280">
+        <f t="shared" ca="1" si="9"/>
+        <v>19622.702830724982</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D281">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="E281">
+        <f t="shared" ca="1" si="9"/>
+        <v>16169.259428131681</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D282">
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E282">
+        <f t="shared" ca="1" si="9"/>
+        <v>12276.618395755426</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D283">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E283">
+        <f t="shared" ca="1" si="9"/>
+        <v>14926.43819161538</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D284">
+        <f t="shared" ca="1" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E284">
+        <f t="shared" ca="1" si="9"/>
+        <v>16725.768064801356</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D285">
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E285">
+        <f t="shared" ca="1" si="9"/>
+        <v>16867.279865717795</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D286">
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E286">
+        <f t="shared" ca="1" si="9"/>
+        <v>17509.652570499544</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D287">
+        <f t="shared" ca="1" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E287">
+        <f t="shared" ca="1" si="9"/>
+        <v>14672.667646380705</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D288">
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="E288">
+        <f t="shared" ca="1" si="9"/>
+        <v>12798.645939277911</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D289">
+        <f t="shared" ca="1" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="E289">
+        <f t="shared" ca="1" si="9"/>
+        <v>18766.955731288792</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D290">
+        <f t="shared" ca="1" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="E290">
+        <f t="shared" ca="1" si="9"/>
+        <v>11086.943598158407</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D291">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="E291">
+        <f t="shared" ca="1" si="9"/>
+        <v>17367.346810312953</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D292">
+        <f t="shared" ca="1" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="E292">
+        <f t="shared" ca="1" si="9"/>
+        <v>13765.74626758486</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D293">
+        <f t="shared" ca="1" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="E293">
+        <f t="shared" ca="1" si="9"/>
+        <v>14320.00815917575</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D294">
+        <f t="shared" ca="1" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E294">
+        <f t="shared" ca="1" si="9"/>
+        <v>13828.72333650934</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D295">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E295">
+        <f t="shared" ca="1" si="9"/>
+        <v>19659.850583908657</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D296">
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E296">
+        <f t="shared" ca="1" si="9"/>
+        <v>17551.982642848641</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D297">
+        <f t="shared" ca="1" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="E297">
+        <f t="shared" ca="1" si="9"/>
+        <v>15656.291607495241</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D298">
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E298">
+        <f t="shared" ca="1" si="9"/>
+        <v>13418.192458668316</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D299">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E299">
+        <f t="shared" ca="1" si="9"/>
+        <v>15337.442417554726</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D300">
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="E300">
+        <f t="shared" ca="1" si="9"/>
+        <v>16626.161088122666</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D301">
+        <f t="shared" ca="1" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="E301">
+        <f t="shared" ca="1" si="9"/>
+        <v>16750.896025507765</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/docs/ARCHIVOS_CARGA.xlsx
+++ b/docs/ARCHIVOS_CARGA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="USUARIOS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="2170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="2174">
   <si>
     <t>ID</t>
   </si>
@@ -6535,16 +6535,44 @@
   </si>
   <si>
     <t>Buque de los Magallanes 300</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6567,13 +6595,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -15358,10 +15394,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H282" sqref="H282"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15370,7 +15406,7 @@
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15389,8 +15425,11 @@
       <c r="F1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15402,17 +15441,20 @@
       </c>
       <c r="D2">
         <f ca="1">INT(RAND() * 49 + 1)</f>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <f ca="1">RAND()*10000+10000</f>
-        <v>15977.753512056253</v>
+        <v>15851.326727477437</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15424,17 +15466,20 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="0">INT(RAND() * 49 + 1)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="1">RAND()*10000+10000</f>
-        <v>14167.952895319875</v>
+        <v>17210.38020818905</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15446,17 +15491,20 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>12114.385327636497</v>
+        <v>19196.100887119374</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15468,17 +15516,20 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>18084.804458960312</v>
+        <v>19764.435080748895</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15490,17 +15541,20 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>15229.228012767067</v>
+        <v>14815.779914268576</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15512,17 +15566,20 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>11816.850783523278</v>
+        <v>17095.313140605165</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15534,17 +15591,20 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>11280.757532764039</v>
+        <v>10714.889428945289</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15556,17 +15616,20 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>10353.686423031195</v>
+        <v>10071.150031917708</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15578,17 +15641,20 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>10646.403543775377</v>
+        <v>10439.966033468128</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15600,17 +15666,20 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>19688.391344728574</v>
+        <v>13600.764806443336</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15622,17 +15691,20 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>11266.778065519775</v>
+        <v>15386.860587704265</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15644,17 +15716,20 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>17598.416326334896</v>
+        <v>14174.832048709712</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15666,17 +15741,20 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>14125.637824340096</v>
+        <v>17181.630562158178</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15688,17 +15766,20 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>16034.177837764761</v>
+        <v>12449.561634967431</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15710,17 +15791,20 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>10059.91714638446</v>
+        <v>11750.243919862362</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15732,17 +15816,20 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>19010.541855335046</v>
+        <v>14788.783476857105</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15754,17 +15841,20 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>16199.25175978351</v>
+        <v>13542.401426015327</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15776,17 +15866,20 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>18415.402515907605</v>
+        <v>19647.335315287339</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15798,17 +15891,20 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>11597.695961324813</v>
+        <v>10551.256970434288</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15820,17 +15916,20 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>14736.855200950362</v>
+        <v>16912.845288613829</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15842,17 +15941,20 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>18730.359301187942</v>
+        <v>16729.569898351223</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15864,17 +15966,20 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>14640.185000657046</v>
+        <v>11016.636453807037</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15886,17 +15991,20 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>18596.27471124861</v>
+        <v>10518.181393599423</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15908,17 +16016,20 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>18169.024750342458</v>
+        <v>17146.180973390648</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15930,17 +16041,20 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>18212.65695487236</v>
+        <v>11607.65042682668</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15952,17 +16066,20 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>17111.054539137764</v>
+        <v>10146.661350576986</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15974,17 +16091,20 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>11495.004080610172</v>
+        <v>14847.27063703645</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15996,17 +16116,20 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>18043.79982109859</v>
+        <v>12558.035875917145</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16018,17 +16141,20 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>10136.14702785438</v>
+        <v>10634.928628848573</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16040,17 +16166,20 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>11369.485218982361</v>
+        <v>11356.827257539708</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16062,17 +16191,20 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>15652.368755069712</v>
+        <v>15992.884020010893</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16084,17 +16216,20 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>15833.420313928938</v>
+        <v>15744.205316183687</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -16106,17 +16241,20 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>18961.049084603386</v>
+        <v>10605.750175236764</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
@@ -16128,17 +16266,20 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>13728.915944236005</v>
+        <v>15806.805463412176</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
@@ -16150,17 +16291,20 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>10875.509743399378</v>
+        <v>11190.709547769329</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
@@ -16172,17 +16316,20 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>15004.413319914176</v>
+        <v>14968.105119950214</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16194,17 +16341,20 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>10530.435052014334</v>
+        <v>15230.764004108758</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16216,17 +16366,20 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>18623.359985511805</v>
+        <v>19834.234688321514</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16238,17 +16391,20 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>10886.92233660403</v>
+        <v>14977.677893601995</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16260,17 +16416,20 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>13654.578675748244</v>
+        <v>12071.294913510244</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16282,17 +16441,20 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>11208.872533763441</v>
+        <v>11146.824655580691</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16304,17 +16466,20 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>19968.866283554111</v>
+        <v>19640.76246280982</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
@@ -16326,17 +16491,20 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>14886.657651080903</v>
+        <v>13264.597666245843</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
@@ -16348,17 +16516,20 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>16613.340729624852</v>
+        <v>19161.809859548994</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16370,17 +16541,20 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>17635.425923178835</v>
+        <v>10249.86937408429</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16392,17 +16566,20 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>15633.094727027757</v>
+        <v>13094.777158996301</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16414,17 +16591,20 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>18665.768257353415</v>
+        <v>16774.292191762746</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -16436,17 +16616,20 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>19329.410183234271</v>
+        <v>16069.783632867751</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -16458,17 +16641,20 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>11977.691728913402</v>
+        <v>19011.85587062726</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -16480,17 +16666,20 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>16301.058755505414</v>
+        <v>14743.065601485374</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
@@ -16502,17 +16691,20 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>12400.183980799426</v>
+        <v>16020.144290713808</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
@@ -16524,17 +16716,20 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>16097.976800771517</v>
+        <v>15082.257967985817</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -16546,17 +16741,20 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>15122.165443717502</v>
+        <v>11968.981070636568</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -16568,17 +16766,20 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>14107.961004199124</v>
+        <v>13814.637122675831</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -16590,17 +16791,20 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>11607.779189919929</v>
+        <v>11351.247182900721</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -16612,17 +16816,20 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>13396.548192412467</v>
+        <v>10862.459056910169</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -16634,17 +16841,20 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>19167.776908575157</v>
+        <v>10754.172939923474</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -16656,17 +16866,20 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>14833.325473676798</v>
+        <v>10212.549914495161</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -16678,17 +16891,20 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>15323.735084501617</v>
+        <v>17348.230826823681</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -16700,17 +16916,20 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>19079.830658895618</v>
+        <v>17477.422208482963</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -16722,17 +16941,20 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>10873.869440100945</v>
+        <v>14156.075797186717</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
@@ -16744,17 +16966,20 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>15342.070092767201</v>
+        <v>12587.718483261182</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16766,17 +16991,20 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>11375.458930224271</v>
+        <v>15889.932632889359</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16788,17 +17016,20 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>19897.428269940428</v>
+        <v>16698.769290375487</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -16810,17 +17041,20 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="1"/>
-        <v>14558.205364962505</v>
+        <v>17268.325224513246</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -16832,17 +17066,20 @@
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" ca="1" si="2">INT(RAND() * 49 + 1)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="3">RAND()*10000+10000</f>
-        <v>17481.120995862118</v>
+        <v>18909.995769608773</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -16854,17 +17091,20 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="3"/>
-        <v>11262.904140454084</v>
+        <v>14169.544470361194</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -16876,17 +17116,20 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="3"/>
-        <v>11276.008890255771</v>
+        <v>17693.175770421825</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -16898,17 +17141,20 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="3"/>
-        <v>14127.740016705058</v>
+        <v>18208.034975937593</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -16920,17 +17166,20 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="3"/>
-        <v>13487.735882829984</v>
+        <v>19356.563030819161</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -16942,17 +17191,20 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="3"/>
-        <v>19616.001892861765</v>
+        <v>16348.270852070691</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -16964,17 +17216,20 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="3"/>
-        <v>11549.686092431475</v>
+        <v>17813.040149926524</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -16986,17 +17241,20 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="3"/>
-        <v>16422.139212921695</v>
+        <v>15655.98961969065</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -17008,17 +17266,20 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="3"/>
-        <v>14404.357986605501</v>
+        <v>15209.442057038483</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -17030,17 +17291,20 @@
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="3"/>
-        <v>13842.633201033947</v>
+        <v>11580.365767229163</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
@@ -17052,17 +17316,20 @@
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="3"/>
-        <v>15732.134328477172</v>
+        <v>12292.58206644677</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -17074,17 +17341,20 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="3"/>
-        <v>14333.633655474046</v>
+        <v>10781.688647724883</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -17096,17 +17366,20 @@
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="3"/>
-        <v>14394.798429549821</v>
+        <v>19978.95367950173</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -17118,17 +17391,20 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="3"/>
-        <v>18038.337472353145</v>
+        <v>11000.097606926209</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -17140,17 +17416,20 @@
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="3"/>
-        <v>18719.990776662235</v>
+        <v>10002.093594194024</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -17162,17 +17441,20 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="3"/>
-        <v>17748.99334119487</v>
+        <v>19776.738379042137</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -17184,17 +17466,20 @@
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="3"/>
-        <v>14692.177898326147</v>
+        <v>13952.340569062173</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -17206,17 +17491,20 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="3"/>
-        <v>10226.408239733724</v>
+        <v>11346.520779932127</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -17228,17 +17516,20 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="3"/>
-        <v>16511.633810494266</v>
+        <v>19549.935109794686</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -17250,17 +17541,20 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="3"/>
-        <v>18794.541735714523</v>
+        <v>18864.338051789491</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -17272,17 +17566,20 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="3"/>
-        <v>11022.616123946076</v>
+        <v>15527.183837728127</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -17294,17 +17591,20 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="3"/>
-        <v>15321.35279331456</v>
+        <v>10547.989715932494</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -17316,17 +17616,20 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="3"/>
-        <v>14403.293957268193</v>
+        <v>10075.428047527495</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -17338,17 +17641,20 @@
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="3"/>
-        <v>11147.062821710613</v>
+        <v>13798.352627835713</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -17360,17 +17666,20 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="3"/>
-        <v>10626.943933180182</v>
+        <v>19097.746722017611</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -17382,17 +17691,20 @@
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="3"/>
-        <v>16238.372777019256</v>
+        <v>18409.464596896803</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>92</v>
       </c>
@@ -17404,17 +17716,20 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="3"/>
-        <v>14453.977219793893</v>
+        <v>14540.243162647523</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -17426,17 +17741,20 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="3"/>
-        <v>19201.892441028613</v>
+        <v>13921.665760803549</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -17448,17 +17766,20 @@
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="3"/>
-        <v>15911.185676916612</v>
+        <v>14782.365400847149</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -17470,17 +17791,20 @@
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="3"/>
-        <v>14007.29092654009</v>
+        <v>14739.452324589412</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>96</v>
       </c>
@@ -17492,17 +17816,20 @@
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="3"/>
-        <v>11111.80937687348</v>
+        <v>13384.441627326942</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>97</v>
       </c>
@@ -17514,17 +17841,20 @@
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="3"/>
-        <v>18292.2592492775</v>
+        <v>14396.513232212616</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>98</v>
       </c>
@@ -17536,17 +17866,20 @@
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="3"/>
-        <v>13995.834277751441</v>
+        <v>18738.542714767362</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>99</v>
       </c>
@@ -17558,17 +17891,20 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="3"/>
-        <v>19895.997104279788</v>
+        <v>10978.598179901272</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>100</v>
       </c>
@@ -17580,17 +17916,20 @@
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="3"/>
-        <v>13415.913756413996</v>
+        <v>10890.681597259914</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>101</v>
       </c>
@@ -17602,17 +17941,20 @@
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="3"/>
-        <v>10420.467831475215</v>
+        <v>13691.594040038919</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>102</v>
       </c>
@@ -17624,17 +17966,20 @@
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="3"/>
-        <v>18318.55171882343</v>
+        <v>14046.927206614921</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>103</v>
       </c>
@@ -17646,17 +17991,20 @@
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="3"/>
-        <v>11645.149897952801</v>
+        <v>15903.388069803681</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>104</v>
       </c>
@@ -17668,17 +18016,20 @@
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="3"/>
-        <v>12088.045699307959</v>
+        <v>19753.736027219733</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>105</v>
       </c>
@@ -17690,17 +18041,20 @@
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="3"/>
-        <v>10846.671388561092</v>
+        <v>11101.927329114225</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>106</v>
       </c>
@@ -17712,17 +18066,20 @@
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="3"/>
-        <v>15915.165703922165</v>
+        <v>17059.427802214061</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>107</v>
       </c>
@@ -17734,17 +18091,20 @@
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="3"/>
-        <v>18936.613417688728</v>
+        <v>19643.670987014433</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>108</v>
       </c>
@@ -17756,17 +18116,20 @@
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="3"/>
-        <v>13146.197443881651</v>
+        <v>16520.975939158125</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>109</v>
       </c>
@@ -17778,17 +18141,20 @@
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="3"/>
-        <v>11471.62412826025</v>
+        <v>19874.298195866031</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>110</v>
       </c>
@@ -17800,17 +18166,20 @@
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="3"/>
-        <v>16574.909951783506</v>
+        <v>12715.333989264216</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>111</v>
       </c>
@@ -17822,17 +18191,20 @@
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="3"/>
-        <v>13455.173624859592</v>
+        <v>14219.084385807275</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>112</v>
       </c>
@@ -17844,17 +18216,20 @@
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="3"/>
-        <v>17483.304360960094</v>
+        <v>19052.455289782592</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>113</v>
       </c>
@@ -17866,17 +18241,20 @@
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="3"/>
-        <v>15515.341043030003</v>
+        <v>18231.888523494556</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>114</v>
       </c>
@@ -17888,17 +18266,20 @@
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="3"/>
-        <v>13511.094738402826</v>
+        <v>13718.485221418769</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>115</v>
       </c>
@@ -17910,17 +18291,20 @@
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="3"/>
-        <v>17534.351540674732</v>
+        <v>12926.661572125662</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>116</v>
       </c>
@@ -17932,17 +18316,20 @@
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="3"/>
-        <v>12338.833985700872</v>
+        <v>10302.432082775351</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>117</v>
       </c>
@@ -17954,17 +18341,20 @@
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="3"/>
-        <v>16195.244356741523</v>
+        <v>17286.470933093184</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>118</v>
       </c>
@@ -17976,17 +18366,20 @@
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="3"/>
-        <v>14797.918064628329</v>
+        <v>19506.555270163852</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>119</v>
       </c>
@@ -17998,17 +18391,20 @@
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="3"/>
-        <v>10668.516383508617</v>
+        <v>16270.893310661655</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>120</v>
       </c>
@@ -18020,17 +18416,20 @@
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="3"/>
-        <v>16168.605176806328</v>
+        <v>17368.539288726399</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>121</v>
       </c>
@@ -18042,17 +18441,20 @@
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="3"/>
-        <v>15947.998479622423</v>
+        <v>19448.692993428391</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>122</v>
       </c>
@@ -18064,17 +18466,20 @@
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="3"/>
-        <v>15711.40463619301</v>
+        <v>11812.282345629807</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>123</v>
       </c>
@@ -18086,17 +18491,20 @@
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="3"/>
-        <v>18749.709706912276</v>
+        <v>12289.082947346455</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>124</v>
       </c>
@@ -18108,17 +18516,20 @@
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="3"/>
-        <v>11223.02933820726</v>
+        <v>19241.385222516801</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>125</v>
       </c>
@@ -18130,17 +18541,20 @@
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="3"/>
-        <v>19066.328278548535</v>
+        <v>12295.445928802024</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>126</v>
       </c>
@@ -18152,17 +18566,20 @@
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="3"/>
-        <v>15558.041756418272</v>
+        <v>15557.743906283569</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>127</v>
       </c>
@@ -18174,17 +18591,20 @@
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="3"/>
-        <v>14885.906331391972</v>
+        <v>17925.489849786311</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>128</v>
       </c>
@@ -18196,17 +18616,20 @@
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="3"/>
-        <v>10842.257918394658</v>
+        <v>19906.008405653833</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>129</v>
       </c>
@@ -18218,17 +18641,20 @@
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="3"/>
-        <v>18259.539915779875</v>
+        <v>15477.157426509832</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>130</v>
       </c>
@@ -18240,17 +18666,20 @@
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D194" ca="1" si="4">INT(RAND() * 49 + 1)</f>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" ca="1" si="5">RAND()*10000+10000</f>
-        <v>17289.78565425222</v>
+        <v>18062.613445587009</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>131</v>
       </c>
@@ -18262,17 +18691,20 @@
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="5"/>
-        <v>15077.964031113544</v>
+        <v>12711.325446257828</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>132</v>
       </c>
@@ -18284,17 +18716,20 @@
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="5"/>
-        <v>15000.106775071526</v>
+        <v>17740.760936392027</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>133</v>
       </c>
@@ -18306,17 +18741,20 @@
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="5"/>
-        <v>11766.268342330082</v>
+        <v>17116.306272809208</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>134</v>
       </c>
@@ -18332,13 +18770,16 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="5"/>
-        <v>10902.920691349789</v>
+        <v>17804.673061941394</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>135</v>
       </c>
@@ -18350,17 +18791,20 @@
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="5"/>
-        <v>17126.938332293234</v>
+        <v>13150.625061227462</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>136</v>
       </c>
@@ -18372,17 +18816,20 @@
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="5"/>
-        <v>19376.582907875603</v>
+        <v>14013.414399890284</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>137</v>
       </c>
@@ -18394,17 +18841,20 @@
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="5"/>
-        <v>11713.535838075875</v>
+        <v>10512.643088252566</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>138</v>
       </c>
@@ -18416,17 +18866,20 @@
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="5"/>
-        <v>15597.319876036181</v>
+        <v>10970.204108055959</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>139</v>
       </c>
@@ -18438,17 +18891,20 @@
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="5"/>
-        <v>19486.806895081885</v>
+        <v>14887.958098716961</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>140</v>
       </c>
@@ -18460,17 +18916,20 @@
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="5"/>
-        <v>10028.358775259676</v>
+        <v>16561.092835871907</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>141</v>
       </c>
@@ -18486,13 +18945,16 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="5"/>
-        <v>17705.57536181431</v>
+        <v>17730.446407274339</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>142</v>
       </c>
@@ -18504,17 +18966,20 @@
       </c>
       <c r="D143">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="5"/>
-        <v>16168.489073485081</v>
+        <v>16553.502408317821</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>143</v>
       </c>
@@ -18526,17 +18991,20 @@
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="5"/>
-        <v>11301.096134841562</v>
+        <v>19750.379813930977</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>144</v>
       </c>
@@ -18548,17 +19016,20 @@
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="5"/>
-        <v>17472.50984868022</v>
+        <v>11854.474202068617</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>145</v>
       </c>
@@ -18570,17 +19041,20 @@
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="5"/>
-        <v>18204.755149061413</v>
+        <v>14650.749025106636</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>146</v>
       </c>
@@ -18592,17 +19066,20 @@
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="5"/>
-        <v>10046.941421339094</v>
+        <v>19048.999028695936</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>147</v>
       </c>
@@ -18614,17 +19091,20 @@
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="5"/>
-        <v>18475.85527633188</v>
+        <v>19796.530736972272</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>148</v>
       </c>
@@ -18636,17 +19116,20 @@
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="5"/>
-        <v>16946.823832093749</v>
+        <v>16322.331225639111</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>149</v>
       </c>
@@ -18658,17 +19141,20 @@
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="5"/>
-        <v>10278.613237845466</v>
+        <v>15129.15837912256</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>150</v>
       </c>
@@ -18680,17 +19166,20 @@
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="5"/>
-        <v>18698.70794268982</v>
+        <v>10830.439673986497</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>151</v>
       </c>
@@ -18702,17 +19191,20 @@
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="5"/>
-        <v>17905.643889216048</v>
+        <v>12685.450884449223</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>152</v>
       </c>
@@ -18724,17 +19216,20 @@
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="5"/>
-        <v>10510.717632420319</v>
+        <v>15097.396480080461</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>153</v>
       </c>
@@ -18746,17 +19241,20 @@
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="5"/>
-        <v>18124.759369688814</v>
+        <v>11721.325253106355</v>
       </c>
       <c r="F154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>154</v>
       </c>
@@ -18768,17 +19266,20 @@
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="5"/>
-        <v>10157.053462815642</v>
+        <v>12506.107209078935</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>155</v>
       </c>
@@ -18790,17 +19291,20 @@
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="5"/>
-        <v>14065.485158587253</v>
+        <v>19007.87161788308</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>156</v>
       </c>
@@ -18812,17 +19316,20 @@
       </c>
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="5"/>
-        <v>15848.134660472278</v>
+        <v>17944.768537585824</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>157</v>
       </c>
@@ -18834,17 +19341,20 @@
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="5"/>
-        <v>18051.764173108146</v>
+        <v>10456.82246101849</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>158</v>
       </c>
@@ -18856,17 +19366,20 @@
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="5"/>
-        <v>19888.794121686675</v>
+        <v>18309.794445891202</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>159</v>
       </c>
@@ -18878,17 +19391,20 @@
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="5"/>
-        <v>15576.426027251266</v>
+        <v>17488.840410410594</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>160</v>
       </c>
@@ -18900,17 +19416,20 @@
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="5"/>
-        <v>16179.754343838864</v>
+        <v>16198.646823626957</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>161</v>
       </c>
@@ -18922,17 +19441,20 @@
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="5"/>
-        <v>13117.206501638</v>
+        <v>17551.344049439889</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>162</v>
       </c>
@@ -18944,17 +19466,20 @@
       </c>
       <c r="D163">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="5"/>
-        <v>16029.422775814477</v>
+        <v>12814.04288542738</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18966,17 +19491,20 @@
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="5"/>
-        <v>11212.293823367982</v>
+        <v>17979.437567788311</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18988,17 +19516,20 @@
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="5"/>
-        <v>13824.42189833167</v>
+        <v>15626.562438996742</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>165</v>
       </c>
@@ -19010,17 +19541,20 @@
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="5"/>
-        <v>14360.915871154364</v>
+        <v>14816.290539617847</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>166</v>
       </c>
@@ -19032,17 +19566,20 @@
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="5"/>
-        <v>13176.404113349112</v>
+        <v>17341.833288894668</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>167</v>
       </c>
@@ -19054,17 +19591,20 @@
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="5"/>
-        <v>18310.251204790133</v>
+        <v>14803.92207275365</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>168</v>
       </c>
@@ -19076,17 +19616,20 @@
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="5"/>
-        <v>12912.042033843711</v>
+        <v>13827.2254276146</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19098,17 +19641,20 @@
       </c>
       <c r="D170">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="5"/>
-        <v>10481.130642377866</v>
+        <v>17712.978722696957</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19120,17 +19666,20 @@
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="5"/>
-        <v>14298.586141964142</v>
+        <v>11136.820657508153</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19142,17 +19691,20 @@
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="5"/>
-        <v>19997.960769498499</v>
+        <v>11477.59597630393</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>172</v>
       </c>
@@ -19164,17 +19716,20 @@
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="5"/>
-        <v>15038.371296083458</v>
+        <v>10101.666002921829</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>173</v>
       </c>
@@ -19186,17 +19741,20 @@
       </c>
       <c r="D174">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="5"/>
-        <v>19280.176844043381</v>
+        <v>19663.372760552778</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>174</v>
       </c>
@@ -19208,17 +19766,20 @@
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="5"/>
-        <v>14148.146709984692</v>
+        <v>15834.379541034052</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>175</v>
       </c>
@@ -19230,17 +19791,20 @@
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="5"/>
-        <v>11777.086760447815</v>
+        <v>14989.851300216782</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19252,17 +19816,20 @@
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="5"/>
-        <v>19217.115163688621</v>
+        <v>10172.31374942434</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>177</v>
       </c>
@@ -19274,17 +19841,20 @@
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E178">
         <f t="shared" ca="1" si="5"/>
-        <v>15728.707478127149</v>
+        <v>11102.571898978747</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>178</v>
       </c>
@@ -19296,17 +19866,20 @@
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="5"/>
-        <v>11016.695609544871</v>
+        <v>19621.559337230243</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>179</v>
       </c>
@@ -19318,17 +19891,20 @@
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="5"/>
-        <v>13937.180791529623</v>
+        <v>12251.18362157666</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>180</v>
       </c>
@@ -19340,17 +19916,20 @@
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E181">
         <f t="shared" ca="1" si="5"/>
-        <v>16521.116493897578</v>
+        <v>13586.335071467809</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>181</v>
       </c>
@@ -19362,17 +19941,20 @@
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <f t="shared" ca="1" si="5"/>
-        <v>15654.612503031156</v>
+        <v>12860.408937206174</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>182</v>
       </c>
@@ -19384,17 +19966,20 @@
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E183">
         <f t="shared" ca="1" si="5"/>
-        <v>15985.718964864649</v>
+        <v>18172.941627974596</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>183</v>
       </c>
@@ -19406,17 +19991,20 @@
       </c>
       <c r="D184">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E184">
         <f t="shared" ca="1" si="5"/>
-        <v>10500.208146405976</v>
+        <v>16051.639362701939</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>184</v>
       </c>
@@ -19428,17 +20016,20 @@
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E185">
         <f t="shared" ca="1" si="5"/>
-        <v>17127.803158784394</v>
+        <v>18933.237506164958</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>185</v>
       </c>
@@ -19450,17 +20041,20 @@
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E186">
         <f t="shared" ca="1" si="5"/>
-        <v>18664.779366379385</v>
+        <v>14663.93363162604</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>186</v>
       </c>
@@ -19472,17 +20066,20 @@
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E187">
         <f t="shared" ca="1" si="5"/>
-        <v>10499.429607634127</v>
+        <v>13203.8586980536</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>187</v>
       </c>
@@ -19494,17 +20091,20 @@
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E188">
         <f t="shared" ca="1" si="5"/>
-        <v>10362.787175808526</v>
+        <v>11180.513559989809</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>188</v>
       </c>
@@ -19516,17 +20116,20 @@
       </c>
       <c r="D189">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E189">
         <f t="shared" ca="1" si="5"/>
-        <v>11642.766331193903</v>
+        <v>19078.183896567083</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>189</v>
       </c>
@@ -19538,17 +20141,20 @@
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E190">
         <f t="shared" ca="1" si="5"/>
-        <v>14136.540682195464</v>
+        <v>15357.457613440642</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>190</v>
       </c>
@@ -19560,17 +20166,20 @@
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E191">
         <f t="shared" ca="1" si="5"/>
-        <v>10687.627404776968</v>
+        <v>15714.480925348878</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>191</v>
       </c>
@@ -19582,17 +20191,20 @@
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E192">
         <f t="shared" ca="1" si="5"/>
-        <v>11867.906915975309</v>
+        <v>11925.088510551184</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>192</v>
       </c>
@@ -19604,17 +20216,20 @@
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E193">
         <f t="shared" ca="1" si="5"/>
-        <v>19114.667068736315</v>
+        <v>10297.17316735526</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>193</v>
       </c>
@@ -19626,17 +20241,20 @@
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E194">
         <f t="shared" ca="1" si="5"/>
-        <v>17599.725246063164</v>
+        <v>19547.457675134698</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>194</v>
       </c>
@@ -19648,17 +20266,20 @@
       </c>
       <c r="D195">
         <f t="shared" ref="D195:D258" ca="1" si="6">INT(RAND() * 49 + 1)</f>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E258" ca="1" si="7">RAND()*10000+10000</f>
-        <v>10859.941381137927</v>
+        <v>13226.710429250719</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>195</v>
       </c>
@@ -19670,17 +20291,20 @@
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E196">
         <f t="shared" ca="1" si="7"/>
-        <v>19773.860866235118</v>
+        <v>16653.913038799976</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>196</v>
       </c>
@@ -19692,17 +20316,20 @@
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E197">
         <f t="shared" ca="1" si="7"/>
-        <v>11066.92970413213</v>
+        <v>16031.797716865225</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>197</v>
       </c>
@@ -19714,17 +20341,20 @@
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E198">
         <f t="shared" ca="1" si="7"/>
-        <v>14959.953015307476</v>
+        <v>15705.726968670118</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>198</v>
       </c>
@@ -19736,17 +20366,20 @@
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E199">
         <f t="shared" ca="1" si="7"/>
-        <v>15332.086360537207</v>
+        <v>18285.179712529636</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>199</v>
       </c>
@@ -19758,17 +20391,20 @@
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E200">
         <f t="shared" ca="1" si="7"/>
-        <v>18115.4537330108</v>
+        <v>12421.886705851317</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>200</v>
       </c>
@@ -19780,17 +20416,20 @@
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201">
         <f t="shared" ca="1" si="7"/>
-        <v>11501.845211127536</v>
+        <v>11884.649934525121</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>201</v>
       </c>
@@ -19802,17 +20441,20 @@
       </c>
       <c r="D202">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E202">
         <f t="shared" ca="1" si="7"/>
-        <v>17151.240577312718</v>
+        <v>19696.240936125752</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>202</v>
       </c>
@@ -19824,17 +20466,20 @@
       </c>
       <c r="D203">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E203">
         <f t="shared" ca="1" si="7"/>
-        <v>13449.527112548507</v>
+        <v>10405.657914147829</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>203</v>
       </c>
@@ -19846,17 +20491,20 @@
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E204">
         <f t="shared" ca="1" si="7"/>
-        <v>17689.319326956822</v>
+        <v>19668.688213009053</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>204</v>
       </c>
@@ -19868,17 +20516,20 @@
       </c>
       <c r="D205">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E205">
         <f t="shared" ca="1" si="7"/>
-        <v>18874.997251362816</v>
+        <v>14431.14201138227</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>205</v>
       </c>
@@ -19890,17 +20541,20 @@
       </c>
       <c r="D206">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E206">
         <f t="shared" ca="1" si="7"/>
-        <v>17658.024212549844</v>
+        <v>16505.5216859334</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>206</v>
       </c>
@@ -19912,17 +20566,20 @@
       </c>
       <c r="D207">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E207">
         <f t="shared" ca="1" si="7"/>
-        <v>15523.830987164103</v>
+        <v>14923.857525371412</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>207</v>
       </c>
@@ -19934,17 +20591,20 @@
       </c>
       <c r="D208">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E208">
         <f t="shared" ca="1" si="7"/>
-        <v>15944.22200769612</v>
+        <v>18253.616373704983</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>208</v>
       </c>
@@ -19956,17 +20616,20 @@
       </c>
       <c r="D209">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E209">
         <f t="shared" ca="1" si="7"/>
-        <v>14580.915647817321</v>
+        <v>17150.940094950191</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>209</v>
       </c>
@@ -19978,17 +20641,20 @@
       </c>
       <c r="D210">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E210">
         <f t="shared" ca="1" si="7"/>
-        <v>10314.097589802497</v>
+        <v>11120.742826461797</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>210</v>
       </c>
@@ -20000,17 +20666,20 @@
       </c>
       <c r="D211">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E211">
         <f t="shared" ca="1" si="7"/>
-        <v>12579.194803749364</v>
+        <v>16822.180863821581</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>211</v>
       </c>
@@ -20022,17 +20691,20 @@
       </c>
       <c r="D212">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E212">
         <f t="shared" ca="1" si="7"/>
-        <v>15071.293415546357</v>
+        <v>19740.615209806896</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>212</v>
       </c>
@@ -20044,17 +20716,20 @@
       </c>
       <c r="D213">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E213">
         <f t="shared" ca="1" si="7"/>
-        <v>19486.502397454835</v>
+        <v>18449.965657098714</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>213</v>
       </c>
@@ -20066,17 +20741,20 @@
       </c>
       <c r="D214">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E214">
         <f t="shared" ca="1" si="7"/>
-        <v>14818.271398625016</v>
+        <v>17120.616353916608</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>214</v>
       </c>
@@ -20088,17 +20766,20 @@
       </c>
       <c r="D215">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E215">
         <f t="shared" ca="1" si="7"/>
-        <v>18779.100758055076</v>
+        <v>10800.700583562788</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>215</v>
       </c>
@@ -20110,17 +20791,20 @@
       </c>
       <c r="D216">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E216">
         <f t="shared" ca="1" si="7"/>
-        <v>11847.470429795685</v>
+        <v>11960.998724276047</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>216</v>
       </c>
@@ -20132,17 +20816,20 @@
       </c>
       <c r="D217">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E217">
         <f t="shared" ca="1" si="7"/>
-        <v>19589.094401415445</v>
+        <v>10110.302952533621</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>217</v>
       </c>
@@ -20154,17 +20841,20 @@
       </c>
       <c r="D218">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E218">
         <f t="shared" ca="1" si="7"/>
-        <v>12630.916047226674</v>
+        <v>10127.811703524916</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>218</v>
       </c>
@@ -20176,17 +20866,20 @@
       </c>
       <c r="D219">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E219">
         <f t="shared" ca="1" si="7"/>
-        <v>15287.392760645278</v>
+        <v>14596.320188457821</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>219</v>
       </c>
@@ -20198,17 +20891,20 @@
       </c>
       <c r="D220">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E220">
         <f t="shared" ca="1" si="7"/>
-        <v>12801.695036799905</v>
+        <v>16882.551074486029</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>220</v>
       </c>
@@ -20220,17 +20916,20 @@
       </c>
       <c r="D221">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E221">
         <f t="shared" ca="1" si="7"/>
-        <v>19307.177369209654</v>
+        <v>14441.654985039098</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>221</v>
       </c>
@@ -20242,17 +20941,20 @@
       </c>
       <c r="D222">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E222">
         <f t="shared" ca="1" si="7"/>
-        <v>16814.89053687128</v>
+        <v>13706.42169990141</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="G222" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>222</v>
       </c>
@@ -20264,17 +20966,20 @@
       </c>
       <c r="D223">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E223">
         <f t="shared" ca="1" si="7"/>
-        <v>16296.156294156255</v>
+        <v>17371.99975156616</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>223</v>
       </c>
@@ -20286,17 +20991,20 @@
       </c>
       <c r="D224">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E224">
         <f t="shared" ca="1" si="7"/>
-        <v>13301.75112207796</v>
+        <v>13605.487694406862</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>224</v>
       </c>
@@ -20308,17 +21016,20 @@
       </c>
       <c r="D225">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E225">
         <f t="shared" ca="1" si="7"/>
-        <v>13032.048011895742</v>
+        <v>17923.228578499115</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>225</v>
       </c>
@@ -20330,17 +21041,20 @@
       </c>
       <c r="D226">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E226">
         <f t="shared" ca="1" si="7"/>
-        <v>15320.68445598465</v>
+        <v>17124.08631979565</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>226</v>
       </c>
@@ -20352,17 +21066,20 @@
       </c>
       <c r="D227">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E227">
         <f t="shared" ca="1" si="7"/>
-        <v>16223.945695969964</v>
+        <v>12584.096667945034</v>
       </c>
       <c r="F227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>227</v>
       </c>
@@ -20374,17 +21091,20 @@
       </c>
       <c r="D228">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E228">
         <f t="shared" ca="1" si="7"/>
-        <v>19507.138887782705</v>
+        <v>10800.863444199034</v>
       </c>
       <c r="F228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>228</v>
       </c>
@@ -20396,17 +21116,20 @@
       </c>
       <c r="D229">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E229">
         <f t="shared" ca="1" si="7"/>
-        <v>15027.903492423513</v>
+        <v>19570.754829092577</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>229</v>
       </c>
@@ -20418,17 +21141,20 @@
       </c>
       <c r="D230">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E230">
         <f t="shared" ca="1" si="7"/>
-        <v>12568.062782047778</v>
+        <v>10064.072343228925</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>230</v>
       </c>
@@ -20440,17 +21166,20 @@
       </c>
       <c r="D231">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E231">
         <f t="shared" ca="1" si="7"/>
-        <v>14021.785839083397</v>
+        <v>14312.66475249466</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>231</v>
       </c>
@@ -20462,17 +21191,20 @@
       </c>
       <c r="D232">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E232">
         <f t="shared" ca="1" si="7"/>
-        <v>13482.691269808687</v>
+        <v>11758.019661509443</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>232</v>
       </c>
@@ -20484,17 +21216,20 @@
       </c>
       <c r="D233">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E233">
         <f t="shared" ca="1" si="7"/>
-        <v>10199.50819452348</v>
+        <v>17008.213394984887</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>233</v>
       </c>
@@ -20506,17 +21241,20 @@
       </c>
       <c r="D234">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E234">
         <f t="shared" ca="1" si="7"/>
-        <v>15670.49986997172</v>
+        <v>19508.355467644782</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>234</v>
       </c>
@@ -20528,17 +21266,20 @@
       </c>
       <c r="D235">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E235">
         <f t="shared" ca="1" si="7"/>
-        <v>17459.490785486923</v>
+        <v>16462.160035281875</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>235</v>
       </c>
@@ -20550,17 +21291,20 @@
       </c>
       <c r="D236">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E236">
         <f t="shared" ca="1" si="7"/>
-        <v>12623.559636267441</v>
+        <v>16429.089902313397</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>236</v>
       </c>
@@ -20572,17 +21316,20 @@
       </c>
       <c r="D237">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E237">
         <f t="shared" ca="1" si="7"/>
-        <v>19919.754383525291</v>
+        <v>14533.959559827497</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>237</v>
       </c>
@@ -20594,17 +21341,20 @@
       </c>
       <c r="D238">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E238">
         <f t="shared" ca="1" si="7"/>
-        <v>19370.474901834452</v>
+        <v>18401.626686834403</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>238</v>
       </c>
@@ -20616,17 +21366,20 @@
       </c>
       <c r="D239">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E239">
         <f t="shared" ca="1" si="7"/>
-        <v>17791.134914354174</v>
+        <v>18491.213176990543</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>239</v>
       </c>
@@ -20638,17 +21391,20 @@
       </c>
       <c r="D240">
         <f t="shared" ca="1" si="6"/>
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E240">
         <f t="shared" ca="1" si="7"/>
-        <v>19680.597682499192</v>
+        <v>16193.791416141814</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>240</v>
       </c>
@@ -20660,17 +21416,20 @@
       </c>
       <c r="D241">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E241">
         <f t="shared" ca="1" si="7"/>
-        <v>14075.559151436019</v>
+        <v>17685.947917545484</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>241</v>
       </c>
@@ -20682,17 +21441,20 @@
       </c>
       <c r="D242">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E242">
         <f t="shared" ca="1" si="7"/>
-        <v>14176.392211617134</v>
+        <v>12341.80890524928</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>242</v>
       </c>
@@ -20704,17 +21466,20 @@
       </c>
       <c r="D243">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E243">
         <f t="shared" ca="1" si="7"/>
-        <v>13695.732889389747</v>
+        <v>17775.918490062042</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>243</v>
       </c>
@@ -20726,17 +21491,20 @@
       </c>
       <c r="D244">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E244">
         <f t="shared" ca="1" si="7"/>
-        <v>15702.47592087424</v>
+        <v>18748.074876703955</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>244</v>
       </c>
@@ -20748,17 +21516,20 @@
       </c>
       <c r="D245">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E245">
         <f t="shared" ca="1" si="7"/>
-        <v>12352.075081233128</v>
+        <v>11573.170094099809</v>
       </c>
       <c r="F245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>245</v>
       </c>
@@ -20770,17 +21541,20 @@
       </c>
       <c r="D246">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E246">
         <f t="shared" ca="1" si="7"/>
-        <v>15674.238536745561</v>
+        <v>10025.885051044823</v>
       </c>
       <c r="F246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>246</v>
       </c>
@@ -20792,17 +21566,20 @@
       </c>
       <c r="D247">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E247">
         <f t="shared" ca="1" si="7"/>
-        <v>10054.031159405789</v>
+        <v>15966.256865394587</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>247</v>
       </c>
@@ -20814,17 +21591,20 @@
       </c>
       <c r="D248">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E248">
         <f t="shared" ca="1" si="7"/>
-        <v>15339.893091589563</v>
+        <v>17121.789963713341</v>
       </c>
       <c r="F248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>248</v>
       </c>
@@ -20836,17 +21616,20 @@
       </c>
       <c r="D249">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E249">
         <f t="shared" ca="1" si="7"/>
-        <v>13859.541030484983</v>
+        <v>17581.663291377907</v>
       </c>
       <c r="F249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>249</v>
       </c>
@@ -20858,17 +21641,20 @@
       </c>
       <c r="D250">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E250">
         <f t="shared" ca="1" si="7"/>
-        <v>12259.803681034551</v>
+        <v>13397.077489688942</v>
       </c>
       <c r="F250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>250</v>
       </c>
@@ -20880,17 +21666,20 @@
       </c>
       <c r="D251">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E251">
         <f t="shared" ca="1" si="7"/>
-        <v>18915.508405271816</v>
+        <v>14783.577296891872</v>
       </c>
       <c r="F251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>251</v>
       </c>
@@ -20902,17 +21691,20 @@
       </c>
       <c r="D252">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E252">
         <f t="shared" ca="1" si="7"/>
-        <v>14625.831518623458</v>
+        <v>15776.432896006299</v>
       </c>
       <c r="F252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>252</v>
       </c>
@@ -20924,17 +21716,20 @@
       </c>
       <c r="D253">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E253">
         <f t="shared" ca="1" si="7"/>
-        <v>18896.169653399789</v>
+        <v>10023.257669707784</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>253</v>
       </c>
@@ -20946,17 +21741,20 @@
       </c>
       <c r="D254">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E254">
         <f t="shared" ca="1" si="7"/>
-        <v>12893.450577136224</v>
+        <v>10874.80046312943</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>254</v>
       </c>
@@ -20968,17 +21766,20 @@
       </c>
       <c r="D255">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E255">
         <f t="shared" ca="1" si="7"/>
-        <v>11662.776237018019</v>
+        <v>10907.088542983953</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>255</v>
       </c>
@@ -20990,17 +21791,20 @@
       </c>
       <c r="D256">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E256">
         <f t="shared" ca="1" si="7"/>
-        <v>15331.027875768863</v>
+        <v>12079.676475917762</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>256</v>
       </c>
@@ -21012,17 +21816,20 @@
       </c>
       <c r="D257">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E257">
         <f t="shared" ca="1" si="7"/>
-        <v>19557.245682199205</v>
+        <v>18221.05185335414</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>257</v>
       </c>
@@ -21034,17 +21841,20 @@
       </c>
       <c r="D258">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E258">
         <f t="shared" ca="1" si="7"/>
-        <v>15215.119470937116</v>
+        <v>10918.289618247736</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>258</v>
       </c>
@@ -21056,17 +21866,20 @@
       </c>
       <c r="D259">
         <f t="shared" ref="D259:D301" ca="1" si="8">INT(RAND() * 49 + 1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E259">
         <f t="shared" ref="E259:E301" ca="1" si="9">RAND()*10000+10000</f>
-        <v>10981.034044707014</v>
+        <v>16502.105558902687</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>259</v>
       </c>
@@ -21078,17 +21891,20 @@
       </c>
       <c r="D260">
         <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E260">
         <f t="shared" ca="1" si="9"/>
-        <v>18972.739112005336</v>
+        <v>11207.525576327784</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>260</v>
       </c>
@@ -21100,17 +21916,20 @@
       </c>
       <c r="D261">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E261">
         <f t="shared" ca="1" si="9"/>
-        <v>14525.650084526886</v>
+        <v>11621.907395408585</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>261</v>
       </c>
@@ -21122,17 +21941,20 @@
       </c>
       <c r="D262">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E262">
         <f t="shared" ca="1" si="9"/>
-        <v>18349.797794444232</v>
+        <v>12322.062966932937</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>262</v>
       </c>
@@ -21144,17 +21966,20 @@
       </c>
       <c r="D263">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E263">
         <f t="shared" ca="1" si="9"/>
-        <v>13578.616384793637</v>
+        <v>17927.240798301704</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>263</v>
       </c>
@@ -21166,17 +21991,20 @@
       </c>
       <c r="D264">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E264">
         <f t="shared" ca="1" si="9"/>
-        <v>18653.271668923713</v>
+        <v>11935.138543561727</v>
       </c>
       <c r="F264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>264</v>
       </c>
@@ -21188,17 +22016,20 @@
       </c>
       <c r="D265">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E265">
         <f t="shared" ca="1" si="9"/>
-        <v>16463.951052549804</v>
+        <v>10221.518263530648</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>265</v>
       </c>
@@ -21210,17 +22041,20 @@
       </c>
       <c r="D266">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E266">
         <f t="shared" ca="1" si="9"/>
-        <v>11113.309463862724</v>
+        <v>11398.663804825106</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>266</v>
       </c>
@@ -21232,17 +22066,20 @@
       </c>
       <c r="D267">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E267">
         <f t="shared" ca="1" si="9"/>
-        <v>19697.070753924418</v>
+        <v>15113.713660442121</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>267</v>
       </c>
@@ -21254,17 +22091,20 @@
       </c>
       <c r="D268">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E268">
         <f t="shared" ca="1" si="9"/>
-        <v>15215.513872201556</v>
+        <v>14541.465883734312</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>268</v>
       </c>
@@ -21276,17 +22116,20 @@
       </c>
       <c r="D269">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E269">
         <f t="shared" ca="1" si="9"/>
-        <v>18378.096383571938</v>
+        <v>15885.05701300301</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>269</v>
       </c>
@@ -21298,17 +22141,20 @@
       </c>
       <c r="D270">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E270">
         <f t="shared" ca="1" si="9"/>
-        <v>14161.748586552956</v>
+        <v>19166.622624570926</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="G270" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>270</v>
       </c>
@@ -21320,17 +22166,20 @@
       </c>
       <c r="D271">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E271">
         <f t="shared" ca="1" si="9"/>
-        <v>11803.886578523567</v>
+        <v>14533.593891477511</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="G271" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>271</v>
       </c>
@@ -21342,17 +22191,20 @@
       </c>
       <c r="D272">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E272">
         <f t="shared" ca="1" si="9"/>
-        <v>17768.330147777331</v>
+        <v>12905.032354967623</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>272</v>
       </c>
@@ -21364,17 +22216,20 @@
       </c>
       <c r="D273">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E273">
         <f t="shared" ca="1" si="9"/>
-        <v>14283.687050187325</v>
+        <v>10742.28655633499</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>273</v>
       </c>
@@ -21386,17 +22241,20 @@
       </c>
       <c r="D274">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E274">
         <f t="shared" ca="1" si="9"/>
-        <v>19935.531476373741</v>
+        <v>12688.384682137101</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>274</v>
       </c>
@@ -21408,17 +22266,20 @@
       </c>
       <c r="D275">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E275">
         <f t="shared" ca="1" si="9"/>
-        <v>16161.205626477127</v>
+        <v>17947.621431802461</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>275</v>
       </c>
@@ -21430,17 +22291,20 @@
       </c>
       <c r="D276">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E276">
         <f t="shared" ca="1" si="9"/>
-        <v>12710.962325032355</v>
+        <v>15804.743313165502</v>
       </c>
       <c r="F276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>276</v>
       </c>
@@ -21452,17 +22316,20 @@
       </c>
       <c r="D277">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E277">
         <f t="shared" ca="1" si="9"/>
-        <v>19099.222459901859</v>
+        <v>11824.667032810565</v>
       </c>
       <c r="F277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>277</v>
       </c>
@@ -21474,17 +22341,20 @@
       </c>
       <c r="D278">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E278">
         <f t="shared" ca="1" si="9"/>
-        <v>18200.763078893804</v>
+        <v>14911.764102709534</v>
       </c>
       <c r="F278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>278</v>
       </c>
@@ -21496,17 +22366,20 @@
       </c>
       <c r="D279">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E279">
         <f t="shared" ca="1" si="9"/>
-        <v>13502.653916617448</v>
+        <v>10060.793313615202</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>279</v>
       </c>
@@ -21518,17 +22391,20 @@
       </c>
       <c r="D280">
         <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E280">
         <f t="shared" ca="1" si="9"/>
-        <v>19622.702830724982</v>
+        <v>12932.474995422426</v>
       </c>
       <c r="F280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>280</v>
       </c>
@@ -21540,17 +22416,20 @@
       </c>
       <c r="D281">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E281">
         <f t="shared" ca="1" si="9"/>
-        <v>16169.259428131681</v>
+        <v>14702.751287622134</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="G281" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>281</v>
       </c>
@@ -21562,17 +22441,20 @@
       </c>
       <c r="D282">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E282">
         <f t="shared" ca="1" si="9"/>
-        <v>12276.618395755426</v>
+        <v>12250.113988429977</v>
       </c>
       <c r="F282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="G282" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>282</v>
       </c>
@@ -21584,17 +22466,20 @@
       </c>
       <c r="D283">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E283">
         <f t="shared" ca="1" si="9"/>
-        <v>14926.43819161538</v>
+        <v>10089.441464908952</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="G283" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>283</v>
       </c>
@@ -21606,17 +22491,20 @@
       </c>
       <c r="D284">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E284">
         <f t="shared" ca="1" si="9"/>
-        <v>16725.768064801356</v>
+        <v>17352.985512736032</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="G284" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>284</v>
       </c>
@@ -21628,17 +22516,20 @@
       </c>
       <c r="D285">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E285">
         <f t="shared" ca="1" si="9"/>
-        <v>16867.279865717795</v>
+        <v>12210.163275373083</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="G285" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>285</v>
       </c>
@@ -21650,17 +22541,20 @@
       </c>
       <c r="D286">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E286">
         <f t="shared" ca="1" si="9"/>
-        <v>17509.652570499544</v>
+        <v>19482.840362671195</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="G286" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>286</v>
       </c>
@@ -21672,17 +22566,20 @@
       </c>
       <c r="D287">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E287">
         <f t="shared" ca="1" si="9"/>
-        <v>14672.667646380705</v>
+        <v>12661.526164637733</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="G287" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>287</v>
       </c>
@@ -21694,17 +22591,20 @@
       </c>
       <c r="D288">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E288">
         <f t="shared" ca="1" si="9"/>
-        <v>12798.645939277911</v>
+        <v>18140.622748948848</v>
       </c>
       <c r="F288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>288</v>
       </c>
@@ -21716,17 +22616,20 @@
       </c>
       <c r="D289">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E289">
         <f t="shared" ca="1" si="9"/>
-        <v>18766.955731288792</v>
+        <v>16166.845124536747</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>289</v>
       </c>
@@ -21738,17 +22641,20 @@
       </c>
       <c r="D290">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E290">
         <f t="shared" ca="1" si="9"/>
-        <v>11086.943598158407</v>
+        <v>11676.810857593002</v>
       </c>
       <c r="F290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>290</v>
       </c>
@@ -21760,17 +22666,20 @@
       </c>
       <c r="D291">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E291">
         <f t="shared" ca="1" si="9"/>
-        <v>17367.346810312953</v>
+        <v>12913.155733756965</v>
       </c>
       <c r="F291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>291</v>
       </c>
@@ -21782,17 +22691,20 @@
       </c>
       <c r="D292">
         <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E292">
         <f t="shared" ca="1" si="9"/>
-        <v>13765.74626758486</v>
+        <v>10665.053486365809</v>
       </c>
       <c r="F292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>292</v>
       </c>
@@ -21804,17 +22716,20 @@
       </c>
       <c r="D293">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E293">
         <f t="shared" ca="1" si="9"/>
-        <v>14320.00815917575</v>
+        <v>15334.347017116714</v>
       </c>
       <c r="F293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>293</v>
       </c>
@@ -21826,17 +22741,20 @@
       </c>
       <c r="D294">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E294">
         <f t="shared" ca="1" si="9"/>
-        <v>13828.72333650934</v>
+        <v>16917.458590318332</v>
       </c>
       <c r="F294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>294</v>
       </c>
@@ -21848,17 +22766,20 @@
       </c>
       <c r="D295">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E295">
         <f t="shared" ca="1" si="9"/>
-        <v>19659.850583908657</v>
+        <v>13354.762257237626</v>
       </c>
       <c r="F295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>295</v>
       </c>
@@ -21870,17 +22791,20 @@
       </c>
       <c r="D296">
         <f t="shared" ca="1" si="8"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E296">
         <f t="shared" ca="1" si="9"/>
-        <v>17551.982642848641</v>
+        <v>10156.791413407653</v>
       </c>
       <c r="F296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>296</v>
       </c>
@@ -21892,17 +22816,20 @@
       </c>
       <c r="D297">
         <f t="shared" ca="1" si="8"/>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E297">
         <f t="shared" ca="1" si="9"/>
-        <v>15656.291607495241</v>
+        <v>12151.563610474625</v>
       </c>
       <c r="F297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>297</v>
       </c>
@@ -21914,17 +22841,20 @@
       </c>
       <c r="D298">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E298">
         <f t="shared" ca="1" si="9"/>
-        <v>13418.192458668316</v>
+        <v>10361.032593840035</v>
       </c>
       <c r="F298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>298</v>
       </c>
@@ -21936,17 +22866,20 @@
       </c>
       <c r="D299">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E299">
         <f t="shared" ca="1" si="9"/>
-        <v>15337.442417554726</v>
+        <v>10397.907216109108</v>
       </c>
       <c r="F299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>299</v>
       </c>
@@ -21958,17 +22891,20 @@
       </c>
       <c r="D300">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E300">
         <f t="shared" ca="1" si="9"/>
-        <v>16626.161088122666</v>
+        <v>16097.431846830768</v>
       </c>
       <c r="F300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>300</v>
       </c>
@@ -21980,18 +22916,22 @@
       </c>
       <c r="D301">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E301">
         <f t="shared" ca="1" si="9"/>
-        <v>16750.896025507765</v>
+        <v>15979.635853718064</v>
       </c>
       <c r="F301">
         <v>0</v>
+      </c>
+      <c r="G301" t="s">
+        <v>2173</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
